--- a/www.eia.gov/forecasts/steo/xls/Fig18.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig18.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Production / Imports (billion cubic feet per day)</t>
@@ -47,7 +47,7 @@
     <t>Net Imports</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>U.S. Marketed Production (bcf per day)</t>
@@ -334,10 +334,10 @@
                   <c:v>9.484391780000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.19269283999999987</c:v>
+                  <c:v>-0.18139345750000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.8609439400000074E-2</c:v>
+                  <c:v>-6.9908821899999918E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -521,13 +521,13 @@
                   <c:v>3.3440089202200056</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.2040543499799981</c:v>
+                  <c:v>-1.2117077768999991</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7567103574899932</c:v>
+                  <c:v>1.7547092191200022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2671269322700027</c:v>
+                  <c:v>4.6095488798400055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,13 +708,13 @@
                   <c:v>-0.67549469309999965</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.8702825111000001</c:v>
+                  <c:v>-0.74332721270000013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.01187618209</c:v>
+                  <c:v>-1.3063450194000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.3223011126099999</c:v>
+                  <c:v>-1.5609913465999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -729,8 +729,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616910592"/>
-        <c:axId val="616911152"/>
+        <c:axId val="592539920"/>
+        <c:axId val="592539360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -971,19 +971,19 @@
                   <c:v>77.209808065000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>76.786066466999998</c:v>
+                  <c:v>76.756022133000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75.839509871000004</c:v>
+                  <c:v>75.832430290000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>76.682460000000006</c:v>
+                  <c:v>76.995246366999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.001900000000006</c:v>
+                  <c:v>76.778400000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>#N/A</c:v>
+                  <c:v>76.154250000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>#N/A</c:v>
@@ -1305,79 +1305,79 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>77.001900000000006</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>77.228560000000002</c:v>
+                  <c:v>76.154250000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>77.682320000000004</c:v>
+                  <c:v>76.884979999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>78.059790000000007</c:v>
+                  <c:v>77.70317</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78.450220000000002</c:v>
+                  <c:v>77.872829999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>78.607759999999999</c:v>
+                  <c:v>78.358279999999993</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>78.572950000000006</c:v>
+                  <c:v>78.595830000000007</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>78.94623</c:v>
+                  <c:v>79.320250000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>79.567679999999996</c:v>
+                  <c:v>79.982290000000006</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>79.92116</c:v>
+                  <c:v>80.357089999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>80.339219999999997</c:v>
+                  <c:v>80.819050000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>80.605720000000005</c:v>
+                  <c:v>81.173590000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80.841809999999995</c:v>
+                  <c:v>81.425460000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>81.138379999999998</c:v>
+                  <c:v>81.957369999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>81.555589999999995</c:v>
+                  <c:v>82.583839999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>81.785740000000004</c:v>
+                  <c:v>83.086860000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81.809690000000003</c:v>
+                  <c:v>83.305459999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>81.777540000000002</c:v>
+                  <c:v>83.476060000000004</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>81.7286</c:v>
+                  <c:v>83.55641</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>81.942409999999995</c:v>
+                  <c:v>83.745369999999994</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>82.432829999999996</c:v>
+                  <c:v>84.062889999999996</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>82.736519999999999</c:v>
+                  <c:v>84.142120000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>83.203289999999996</c:v>
+                  <c:v>84.424880000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83.700069999999997</c:v>
+                  <c:v>84.725930000000005</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>84.256169999999997</c:v>
+                  <c:v>84.977080000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,11 +1394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="616909472"/>
-        <c:axId val="616910032"/>
+        <c:axId val="592528160"/>
+        <c:axId val="592528720"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="616909472"/>
+        <c:axId val="592528160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1415,7 +1415,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="616910032"/>
+        <c:crossAx val="592528720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1426,7 +1426,7 @@
         <c:minorTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="616910032"/>
+        <c:axId val="592528720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="88"/>
@@ -1454,13 +1454,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="616909472"/>
+        <c:crossAx val="592528160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="616910592"/>
+        <c:axId val="592539920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,7 +1477,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="616911152"/>
+        <c:crossAx val="592539360"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1485,7 +1485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="616911152"/>
+        <c:axId val="592539360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="9"/>
@@ -1502,7 +1502,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="616910592"/>
+        <c:crossAx val="592539920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1"/>
@@ -1676,7 +1676,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1803,10 +1803,10 @@
             <v>9.484391780000001E-2</v>
           </cell>
           <cell r="K27">
-            <v>-0.19269283999999987</v>
+            <v>-0.18139345750000002</v>
           </cell>
           <cell r="L27">
-            <v>-5.8609439400000074E-2</v>
+            <v>-6.9908821899999918E-2</v>
           </cell>
           <cell r="M27">
             <v>0</v>
@@ -1817,13 +1817,13 @@
             <v>3.3440089202200056</v>
           </cell>
           <cell r="K28">
-            <v>-1.2040543499799981</v>
+            <v>-1.2117077768999991</v>
           </cell>
           <cell r="L28">
-            <v>1.7567103574899932</v>
+            <v>1.7547092191200022</v>
           </cell>
           <cell r="M28">
-            <v>3.2671269322700027</v>
+            <v>4.6095488798400055</v>
           </cell>
         </row>
         <row r="29">
@@ -1831,13 +1831,13 @@
             <v>-0.67549469309999965</v>
           </cell>
           <cell r="K29">
-            <v>-0.8702825111000001</v>
+            <v>-0.74332721270000013</v>
           </cell>
           <cell r="L29">
-            <v>-1.01187618209</v>
+            <v>-1.3063450194000001</v>
           </cell>
           <cell r="M29">
-            <v>-1.3223011126099999</v>
+            <v>-1.5609913465999998</v>
           </cell>
         </row>
         <row r="35">
@@ -2065,7 +2065,7 @@
             <v>42614</v>
           </cell>
           <cell r="C55">
-            <v>76.786066466999998</v>
+            <v>76.756022133000002</v>
           </cell>
           <cell r="D55" t="e">
             <v>#N/A</v>
@@ -2076,7 +2076,7 @@
             <v>42644</v>
           </cell>
           <cell r="C56">
-            <v>75.839509871000004</v>
+            <v>75.832430290000005</v>
           </cell>
           <cell r="D56" t="e">
             <v>#N/A</v>
@@ -2087,7 +2087,7 @@
             <v>42675</v>
           </cell>
           <cell r="C57">
-            <v>76.682460000000006</v>
+            <v>76.995246366999993</v>
           </cell>
           <cell r="D57" t="e">
             <v>#N/A</v>
@@ -2098,21 +2098,21 @@
             <v>42705</v>
           </cell>
           <cell r="C58">
-            <v>77.001900000000006</v>
-          </cell>
-          <cell r="D58">
-            <v>77.001900000000006</v>
+            <v>76.778400000000005</v>
+          </cell>
+          <cell r="D58" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="59">
           <cell r="B59">
             <v>42736</v>
           </cell>
-          <cell r="C59" t="e">
-            <v>#N/A</v>
+          <cell r="C59">
+            <v>76.154250000000005</v>
           </cell>
           <cell r="D59">
-            <v>77.228560000000002</v>
+            <v>76.154250000000005</v>
           </cell>
         </row>
         <row r="60">
@@ -2123,7 +2123,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D60">
-            <v>77.682320000000004</v>
+            <v>76.884979999999999</v>
           </cell>
         </row>
         <row r="61">
@@ -2134,7 +2134,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D61">
-            <v>78.059790000000007</v>
+            <v>77.70317</v>
           </cell>
         </row>
         <row r="62">
@@ -2145,7 +2145,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D62">
-            <v>78.450220000000002</v>
+            <v>77.872829999999993</v>
           </cell>
         </row>
         <row r="63">
@@ -2156,7 +2156,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D63">
-            <v>78.607759999999999</v>
+            <v>78.358279999999993</v>
           </cell>
         </row>
         <row r="64">
@@ -2167,7 +2167,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D64">
-            <v>78.572950000000006</v>
+            <v>78.595830000000007</v>
           </cell>
         </row>
         <row r="65">
@@ -2178,7 +2178,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D65">
-            <v>78.94623</v>
+            <v>79.320250000000001</v>
           </cell>
         </row>
         <row r="66">
@@ -2189,7 +2189,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D66">
-            <v>79.567679999999996</v>
+            <v>79.982290000000006</v>
           </cell>
         </row>
         <row r="67">
@@ -2200,7 +2200,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D67">
-            <v>79.92116</v>
+            <v>80.357089999999999</v>
           </cell>
         </row>
         <row r="68">
@@ -2211,7 +2211,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D68">
-            <v>80.339219999999997</v>
+            <v>80.819050000000004</v>
           </cell>
         </row>
         <row r="69">
@@ -2222,7 +2222,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D69">
-            <v>80.605720000000005</v>
+            <v>81.173590000000004</v>
           </cell>
         </row>
         <row r="70">
@@ -2233,7 +2233,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D70">
-            <v>80.841809999999995</v>
+            <v>81.425460000000001</v>
           </cell>
         </row>
         <row r="71">
@@ -2244,7 +2244,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D71">
-            <v>81.138379999999998</v>
+            <v>81.957369999999997</v>
           </cell>
         </row>
         <row r="72">
@@ -2255,7 +2255,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D72">
-            <v>81.555589999999995</v>
+            <v>82.583839999999995</v>
           </cell>
         </row>
         <row r="73">
@@ -2266,7 +2266,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D73">
-            <v>81.785740000000004</v>
+            <v>83.086860000000001</v>
           </cell>
         </row>
         <row r="74">
@@ -2277,7 +2277,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D74">
-            <v>81.809690000000003</v>
+            <v>83.305459999999997</v>
           </cell>
         </row>
         <row r="75">
@@ -2288,7 +2288,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D75">
-            <v>81.777540000000002</v>
+            <v>83.476060000000004</v>
           </cell>
         </row>
         <row r="76">
@@ -2299,7 +2299,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D76">
-            <v>81.7286</v>
+            <v>83.55641</v>
           </cell>
         </row>
         <row r="77">
@@ -2310,7 +2310,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D77">
-            <v>81.942409999999995</v>
+            <v>83.745369999999994</v>
           </cell>
         </row>
         <row r="78">
@@ -2321,7 +2321,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D78">
-            <v>82.432829999999996</v>
+            <v>84.062889999999996</v>
           </cell>
         </row>
         <row r="79">
@@ -2332,7 +2332,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D79">
-            <v>82.736519999999999</v>
+            <v>84.142120000000006</v>
           </cell>
         </row>
         <row r="80">
@@ -2343,7 +2343,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D80">
-            <v>83.203289999999996</v>
+            <v>84.424880000000002</v>
           </cell>
         </row>
         <row r="81">
@@ -2354,7 +2354,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D81">
-            <v>83.700069999999997</v>
+            <v>84.725930000000005</v>
           </cell>
         </row>
         <row r="82">
@@ -2365,7 +2365,7 @@
             <v>#N/A</v>
           </cell>
           <cell r="D82">
-            <v>84.256169999999997</v>
+            <v>84.977080000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -2729,7 +2729,7 @@
         <v>3.5295784575</v>
       </c>
       <c r="F27" s="10">
-        <v>3.3368856175000001</v>
+        <v>3.348185</v>
       </c>
       <c r="G27" s="10">
         <v>3.2782761781</v>
@@ -2744,11 +2744,11 @@
       </c>
       <c r="K27" s="12">
         <f t="shared" si="0"/>
-        <v>-0.19269283999999987</v>
+        <v>-0.18139345750000002</v>
       </c>
       <c r="L27" s="12">
         <f t="shared" si="0"/>
-        <v>-5.8609439400000074E-2</v>
+        <v>-6.9908821899999918E-2</v>
       </c>
       <c r="M27" s="12">
         <f t="shared" si="0"/>
@@ -2766,13 +2766,13 @@
         <v>75.24558544397</v>
       </c>
       <c r="F28" s="10">
-        <v>74.041531093990002</v>
+        <v>74.033877667070001</v>
       </c>
       <c r="G28" s="10">
-        <v>75.798241451479996</v>
+        <v>75.788586886190004</v>
       </c>
       <c r="H28" s="10">
-        <v>79.065368383749998</v>
+        <v>80.398135766030009</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12">
@@ -2781,15 +2781,15 @@
       </c>
       <c r="K28" s="12">
         <f t="shared" si="0"/>
-        <v>-1.2040543499799981</v>
+        <v>-1.2117077768999991</v>
       </c>
       <c r="L28" s="12">
         <f t="shared" si="0"/>
-        <v>1.7567103574899932</v>
+        <v>1.7547092191200022</v>
       </c>
       <c r="M28" s="12">
         <f t="shared" si="0"/>
-        <v>3.2671269322700027</v>
+        <v>4.6095488798400055</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,13 +2805,13 @@
         <v>2.5604960384000002</v>
       </c>
       <c r="F29" s="14">
-        <v>1.6902135273000001</v>
+        <v>1.8171688257</v>
       </c>
       <c r="G29" s="14">
-        <v>0.67833734521</v>
+        <v>0.51082380630000002</v>
       </c>
       <c r="H29" s="14">
-        <v>-0.64396376740000005</v>
+        <v>-1.0501675402999999</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="16">
@@ -2820,15 +2820,15 @@
       </c>
       <c r="K29" s="16">
         <f t="shared" si="0"/>
-        <v>-0.8702825111000001</v>
+        <v>-0.74332721270000013</v>
       </c>
       <c r="L29" s="16">
         <f t="shared" si="0"/>
-        <v>-1.01187618209</v>
+        <v>-1.3063450194000001</v>
       </c>
       <c r="M29" s="16">
         <f t="shared" si="0"/>
-        <v>-1.3223011126099999</v>
+        <v>-1.5609913465999998</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3087,7 +3087,7 @@
         <v>42614</v>
       </c>
       <c r="C55" s="25">
-        <v>76.786066466999998</v>
+        <v>76.756022133000002</v>
       </c>
       <c r="D55" s="25" t="e">
         <v>#N/A</v>
@@ -3098,7 +3098,7 @@
         <v>42644</v>
       </c>
       <c r="C56" s="25">
-        <v>75.839509871000004</v>
+        <v>75.832430290000005</v>
       </c>
       <c r="D56" s="25" t="e">
         <v>#N/A</v>
@@ -3109,7 +3109,7 @@
         <v>42675</v>
       </c>
       <c r="C57" s="25">
-        <v>76.682460000000006</v>
+        <v>76.995246366999993</v>
       </c>
       <c r="D57" s="25" t="e">
         <v>#N/A</v>
@@ -3120,21 +3120,21 @@
         <v>42705</v>
       </c>
       <c r="C58" s="25">
-        <v>77.001900000000006</v>
-      </c>
-      <c r="D58" s="25">
-        <v>77.001900000000006</v>
+        <v>76.778400000000005</v>
+      </c>
+      <c r="D58" s="25" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="23">
         <v>42736</v>
       </c>
-      <c r="C59" s="25" t="e">
-        <v>#N/A</v>
+      <c r="C59" s="25">
+        <v>76.154250000000005</v>
       </c>
       <c r="D59" s="25">
-        <v>77.228560000000002</v>
+        <v>76.154250000000005</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -3145,7 +3145,7 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="25">
-        <v>77.682320000000004</v>
+        <v>76.884979999999999</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="25">
-        <v>78.059790000000007</v>
+        <v>77.70317</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="25">
-        <v>78.450220000000002</v>
+        <v>77.872829999999993</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="25">
-        <v>78.607759999999999</v>
+        <v>78.358279999999993</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -3189,7 +3189,7 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="25">
-        <v>78.572950000000006</v>
+        <v>78.595830000000007</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
@@ -3200,7 +3200,7 @@
         <v>#N/A</v>
       </c>
       <c r="D65" s="25">
-        <v>78.94623</v>
+        <v>79.320250000000001</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -3211,7 +3211,7 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="25">
-        <v>79.567679999999996</v>
+        <v>79.982290000000006</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>#N/A</v>
       </c>
       <c r="D67" s="25">
-        <v>79.92116</v>
+        <v>80.357089999999999</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -3233,7 +3233,7 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="25">
-        <v>80.339219999999997</v>
+        <v>80.819050000000004</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
@@ -3244,7 +3244,7 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="25">
-        <v>80.605720000000005</v>
+        <v>81.173590000000004</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>#N/A</v>
       </c>
       <c r="D70" s="25">
-        <v>80.841809999999995</v>
+        <v>81.425460000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -3266,7 +3266,7 @@
         <v>#N/A</v>
       </c>
       <c r="D71" s="25">
-        <v>81.138379999999998</v>
+        <v>81.957369999999997</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>#N/A</v>
       </c>
       <c r="D72" s="25">
-        <v>81.555589999999995</v>
+        <v>82.583839999999995</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
@@ -3288,7 +3288,7 @@
         <v>#N/A</v>
       </c>
       <c r="D73" s="25">
-        <v>81.785740000000004</v>
+        <v>83.086860000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
@@ -3299,7 +3299,7 @@
         <v>#N/A</v>
       </c>
       <c r="D74" s="25">
-        <v>81.809690000000003</v>
+        <v>83.305459999999997</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
@@ -3310,7 +3310,7 @@
         <v>#N/A</v>
       </c>
       <c r="D75" s="25">
-        <v>81.777540000000002</v>
+        <v>83.476060000000004</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
@@ -3321,7 +3321,7 @@
         <v>#N/A</v>
       </c>
       <c r="D76" s="25">
-        <v>81.7286</v>
+        <v>83.55641</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -3332,7 +3332,7 @@
         <v>#N/A</v>
       </c>
       <c r="D77" s="25">
-        <v>81.942409999999995</v>
+        <v>83.745369999999994</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>#N/A</v>
       </c>
       <c r="D78" s="25">
-        <v>82.432829999999996</v>
+        <v>84.062889999999996</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
@@ -3354,7 +3354,7 @@
         <v>#N/A</v>
       </c>
       <c r="D79" s="25">
-        <v>82.736519999999999</v>
+        <v>84.142120000000006</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
@@ -3365,7 +3365,7 @@
         <v>#N/A</v>
       </c>
       <c r="D80" s="25">
-        <v>83.203289999999996</v>
+        <v>84.424880000000002</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
@@ -3376,7 +3376,7 @@
         <v>#N/A</v>
       </c>
       <c r="D81" s="25">
-        <v>83.700069999999997</v>
+        <v>84.725930000000005</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
@@ -3387,7 +3387,7 @@
         <v>#N/A</v>
       </c>
       <c r="D82" s="14">
-        <v>84.256169999999997</v>
+        <v>84.977080000000001</v>
       </c>
     </row>
   </sheetData>
